--- a/templates/OT_.Default.xlsx
+++ b/templates/OT_.Default.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM-TEST\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C949D1-F8A0-41A5-AF21-BA355941B38E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C12EAF9-4A22-459F-8FEA-48E171177CFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SSTT FR" sheetId="1" r:id="rId1"/>
-    <sheet name="SSTT EN" sheetId="2" r:id="rId2"/>
+    <sheet name="SSTT EN" sheetId="2" r:id="rId1"/>
+    <sheet name="SSTT FR" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -25,10 +25,8 @@
     <definedName name="choix">'[1]Fiche de données d''essais LCF 1'!$AA$1:$AA$2</definedName>
     <definedName name="Conditions">[2]Listes!$G$3:$G$6</definedName>
     <definedName name="Statut2">[3]Listes!$B$3:$B$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'SSTT EN'!$A$1:$I$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SSTT FR'!$A$1:$I$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,10 +37,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+  <si>
+    <t>PO#:</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Référence METCUT:</t>
+  </si>
+  <si>
+    <t>Livraison</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Référence Client Final:</t>
+  </si>
+  <si>
+    <t>Materiau:</t>
+  </si>
+  <si>
+    <t>Format Eprouvette:</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Date de livraison demandée:</t>
+  </si>
+  <si>
+    <t>Quantité:</t>
+  </si>
+  <si>
+    <t>Specification:</t>
+  </si>
+  <si>
+    <t>Commentaires:</t>
+  </si>
+  <si>
+    <t>Référence Eprouvette</t>
+  </si>
+  <si>
+    <t>Dessin</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>To:</t>
+  </si>
+  <si>
+    <t>MRSAS Job:</t>
+  </si>
+  <si>
+    <t>Delivered Goods</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Material:</t>
+  </si>
+  <si>
+    <t>Specimen Geometry:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Requested Delivery Date:
+</t>
+  </si>
+  <si>
+    <t>Quantity:</t>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
+    <t>ID Specimen</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date </t>
+    </r>
     <r>
       <rPr>
+        <sz val="6"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(YYYY-MM-DD):</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref Devis: </t>
+  </si>
+  <si>
+    <t>Final Customer Ref.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection Anti-Corrosion: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenaillage Extrémité/Filets: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-Corrosion Protection: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom/Thread Shot Peening: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="3"/>
         <rFont val="Arial"/>
@@ -70,64 +193,11 @@
     </r>
   </si>
   <si>
-    <t>PO#:</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
-    <t>Contact:</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Référence METCUT:</t>
-  </si>
-  <si>
-    <t>Livraison</t>
-  </si>
-  <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t>Référence Client Final:</t>
-  </si>
-  <si>
-    <t>Materiau:</t>
-  </si>
-  <si>
-    <t>Format Eprouvette:</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Date de livraison demandée:</t>
-  </si>
-  <si>
-    <t>Quantité:</t>
-  </si>
-  <si>
-    <t>Specification:</t>
-  </si>
-  <si>
-    <t>Commentaires:</t>
-  </si>
-  <si>
-    <t>Référence Eprouvette</t>
-  </si>
-  <si>
-    <t>Dessin</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
-        <color theme="3"/>
+        <color theme="4" tint="-0.499984740745262"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -136,6 +206,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -145,69 +216,21 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>This document acts as an open purchase order.</t>
     </r>
-  </si>
-  <si>
-    <t>To:</t>
-  </si>
-  <si>
-    <t>MRSAS Job:</t>
-  </si>
-  <si>
-    <t>Delivered Goods</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Final Customer Reference:</t>
-  </si>
-  <si>
-    <t>Material:</t>
-  </si>
-  <si>
-    <t>Specimen Geometry:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Requested Delivery Date:
-</t>
-  </si>
-  <si>
-    <t>Quantity:</t>
-  </si>
-  <si>
-    <t>Comments:</t>
-  </si>
-  <si>
-    <t>ID Specimen</t>
-  </si>
-  <si>
-    <t>Drawing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref Devis: </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Date </t>
-    </r>
     <r>
       <rPr>
-        <sz val="6"/>
-        <color rgb="FF8497B0"/>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(YYYY-MM-DD):</t>
+      <t/>
     </r>
   </si>
 </sst>
@@ -218,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\,\ [$-409]mmmm\ d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -230,12 +253,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -243,6 +260,18 @@
     <font>
       <sz val="8"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -266,25 +295,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <sz val="6"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF8497B0"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF8497B0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <color rgb="FF8497B0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -296,20 +319,29 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF203764"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF203764"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color theme="6" tint="-0.499984740745262"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -323,12 +355,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF869B85"/>
+        <fgColor rgb="FFA6B4A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -393,15 +425,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,26 +457,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -437,67 +483,67 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,14 +552,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF869B85"/>
-      <color rgb="FF203764"/>
-      <color rgb="FF8497B0"/>
-      <color rgb="FFA6B4A8"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -530,22 +568,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>87890</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523461</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>41619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
+        <xdr:cNvPr id="6" name="Image 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DCAC97-D285-4052-967A-137BBF149BE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1171DDB7-ED4D-4110-904B-4C27C25B770A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,8 +605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="9526"/>
-          <a:ext cx="495307" cy="2185988"/>
+          <a:off x="5463303" y="0"/>
+          <a:ext cx="435571" cy="2228228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,10 +630,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
+        <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1640CBEC-01A4-4817-8264-D01B1B1D1D39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202BA896-2555-42F4-BCF0-8079F00407B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,7 +657,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="930980" cy="933450"/>
+          <a:ext cx="929738" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,22 +684,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
+      <xdr:colOff>93059</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4770</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>527011</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCDDCFA-510A-4D60-A52F-76CA3372B2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F65FF3-DD48-4459-998F-22044B93713F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6567488" y="0"/>
-          <a:ext cx="495307" cy="2185988"/>
+          <a:off x="5468472" y="0"/>
+          <a:ext cx="433952" cy="2219946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,7 +749,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BA3CF8-BA93-47EC-A9E6-E86E0AB2A108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BE5DEF-26FE-450B-A7D8-A2BEF14A64FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +773,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="930980" cy="933450"/>
+          <a:ext cx="929738" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -995,7 +1033,7 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>90          Emission Rapport</v>
+            <v>90          Attente Rapport</v>
           </cell>
         </row>
         <row r="20">
@@ -1023,7 +1061,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007-2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1031,34 +1069,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1316,263 +1354,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="26" t="s">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="23"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="23"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="21" spans="1:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="15"/>
+      <c r="F21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="12" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="19"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
-  <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.35433070866141736" bottom="0.55118110236220474" header="0.11811023622047245" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;K04-044M&amp;"Arial,Normal"&amp;8ETCUT RECHERCHES S.A.S.
 22 rue du Moulin de la Garde – 44477 CARQUEFOU Cedex  (Nantes) FRANCE – Tel. +33 240 252 507 – www.metcutfrance.com
@@ -1583,255 +1600,246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="15"/>
+      <c r="F21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="21" spans="1:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="19"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:H26"/>
+  <mergeCells count="9">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
-  <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.35433070866141736" bottom="0.55118110236220474" header="0.11811023622047245" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;K04-044M&amp;"Arial,Normal"&amp;8ETCUT RECHERCHES S.A.S.
 22 rue du Moulin de la Garde – 44477 CARQUEFOU Cedex  (Nantes) FRANCE – Tel. +33 240 252 507 – www.metcutfrance.com

--- a/templates/OT_.Default.xlsx
+++ b/templates/OT_.Default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C12EAF9-4A22-459F-8FEA-48E171177CFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFE6024-65E9-4564-B97E-570AF2425DB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37470" yWindow="-1995" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSTT EN" sheetId="2" r:id="rId1"/>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">Anti-Corrosion Protection: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom/Thread Shot Peening: </t>
   </si>
   <si>
     <r>
@@ -232,6 +229,9 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttom/Thread Shot Peening: </t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -531,6 +531,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -539,12 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1375,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -1396,8 +1396,8 @@
         <v>0</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1429,23 +1429,23 @@
       <c r="G8" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="31" t="s">
         <v>20</v>
       </c>
@@ -1458,9 +1458,9 @@
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="4"/>
       <c r="G14" s="12"/>
     </row>
@@ -1468,9 +1468,9 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="4"/>
       <c r="G15" s="12"/>
     </row>
@@ -1478,9 +1478,9 @@
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="4"/>
       <c r="G16" s="12"/>
     </row>
@@ -1493,15 +1493,15 @@
       <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
@@ -1520,11 +1520,11 @@
         <v>13</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="19"/>
@@ -1546,11 +1546,11 @@
         <v>26</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E3:E4"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1621,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -1642,8 +1642,8 @@
         <v>0</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,23 +1679,23 @@
       <c r="G8" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="33" t="s">
         <v>5</v>
       </c>
@@ -1708,9 +1708,9 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="4"/>
       <c r="G14" s="12"/>
     </row>
@@ -1718,9 +1718,9 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="4"/>
       <c r="G15" s="12"/>
     </row>
@@ -1728,9 +1728,9 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="4"/>
       <c r="G16" s="12"/>
     </row>
@@ -1743,15 +1743,15 @@
       <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
@@ -1770,11 +1770,11 @@
         <v>13</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1796,11 +1796,11 @@
         <v>14</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">

--- a/templates/OT_.Default.xlsx
+++ b/templates/OT_.Default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFE6024-65E9-4564-B97E-570AF2425DB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64DDF19-A2E6-4535-8FD0-244CF9ED4480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37470" yWindow="-1995" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67500" yWindow="650" windowWidth="25980" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSTT EN" sheetId="2" r:id="rId1"/>
@@ -231,7 +231,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Buttom/Thread Shot Peening: </t>
+    <t>Shot Peening: heads fatigue bars:</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\,\ [$-409]mmmm\ d;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -345,6 +345,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -440,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,6 +551,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,9 +586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523461</xdr:colOff>
+      <xdr:colOff>525048</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>41619</xdr:rowOff>
+      <xdr:rowOff>44793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -624,7 +636,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>349955</xdr:colOff>
+      <xdr:colOff>354717</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1358,10 +1370,10 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
@@ -1373,7 +1385,7 @@
     <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="21" t="s">
         <v>37</v>
       </c>
@@ -1381,17 +1393,17 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1400,35 +1412,35 @@
       <c r="D4" s="34"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="7"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="7"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1451,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1466,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1476,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1486,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1484,15 +1496,15 @@
       <c r="F16" s="4"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>10</v>
       </c>
@@ -1503,7 +1515,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1527,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>13</v>
       </c>
@@ -1527,21 +1539,21 @@
       <c r="G22" s="38"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="19"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
@@ -1552,7 +1564,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +1579,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -1607,7 +1619,7 @@
       <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
@@ -1619,7 +1631,7 @@
     <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="21" t="s">
         <v>36</v>
       </c>
@@ -1627,17 +1639,17 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1658,7 @@
       <c r="D4" s="34"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1655,7 +1667,7 @@
       <c r="E5" s="9"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1664,21 +1676,21 @@
       <c r="E6" s="9"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1701,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1716,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1726,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1736,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1734,15 +1746,15 @@
       <c r="F16" s="4"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1765,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1777,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1789,7 @@
       <c r="G22" s="38"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>33</v>
       </c>
@@ -1791,7 +1803,7 @@
       <c r="G23" s="19"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +1814,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1829,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
